--- a/Mapeamento P1/Campos P1.xlsx
+++ b/Mapeamento P1/Campos P1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="8445" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Atuação Fixa" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Especialização" sheetId="3" r:id="rId5"/>
     <sheet name="Faltas" sheetId="5" r:id="rId6"/>
     <sheet name="Todos os Campos" sheetId="7" r:id="rId7"/>
+    <sheet name="Plan1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="119">
   <si>
     <t>COD_PROFESSOR</t>
   </si>
@@ -305,13 +306,85 @@
   </si>
   <si>
     <t>FALTAS</t>
+  </si>
+  <si>
+    <t>APURACAO ALOCACAO</t>
+  </si>
+  <si>
+    <t>DIA_SEMANA</t>
+  </si>
+  <si>
+    <t>TURNO_TEMPO</t>
+  </si>
+  <si>
+    <t>DT_INI</t>
+  </si>
+  <si>
+    <t>DT_FIM</t>
+  </si>
+  <si>
+    <t>HORA_INI</t>
+  </si>
+  <si>
+    <t>HORA_FIM</t>
+  </si>
+  <si>
+    <t>DT_SUBSTITUICAO_PROF</t>
+  </si>
+  <si>
+    <t>IND_ENSINO_DISTANCIA</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_COMPOSICAO</t>
+  </si>
+  <si>
+    <t>HH_INICIO_AULA</t>
+  </si>
+  <si>
+    <t>HH_FIM_AULA</t>
+  </si>
+  <si>
+    <t>VAL_COMPOSICAO</t>
+  </si>
+  <si>
+    <t>IND_TELEPRESENCIAL</t>
+  </si>
+  <si>
+    <t>ID_TURNO</t>
+  </si>
+  <si>
+    <t>IND_MODALIDADE</t>
+  </si>
+  <si>
+    <t>DT_INI_VIGENCIA</t>
+  </si>
+  <si>
+    <t>DT_FIM_VIGENCIA</t>
+  </si>
+  <si>
+    <t>COD_CAMPUS_PAI</t>
+  </si>
+  <si>
+    <t>COD_INSTITUICAO_PAI</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>QTD_HORA_AD_NOT_DIA</t>
+  </si>
+  <si>
+    <t>FLG_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>QTD_HORA_DIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +536,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -632,6 +705,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,6 +714,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -718,6 +797,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -752,6 +832,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -927,20 +1008,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1033,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -964,7 +1045,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -976,7 +1057,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -986,7 +1067,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1077,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1089,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1101,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1113,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1125,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,7 +1161,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1092,7 +1173,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1185,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1197,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1126,7 +1207,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1138,7 +1219,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1231,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1162,7 +1243,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1255,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1267,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1279,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1291,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1222,7 +1303,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1315,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1327,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +1339,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1272,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +1365,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1296,7 +1377,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1389,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1401,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1413,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1425,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1358,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1449,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1378,7 +1459,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1392,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1408,20 +1489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1514,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1526,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1538,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1548,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1558,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1570,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1501,7 +1582,7 @@
       </c>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1513,7 +1594,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1606,7 @@
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1553,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1660,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1591,7 +1672,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1603,7 +1684,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1710,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1641,7 +1722,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1734,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1746,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1677,7 +1758,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1770,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1701,7 +1782,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1713,7 +1794,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1806,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +1818,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1830,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -1761,7 +1842,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
@@ -1773,7 +1854,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -1785,7 +1866,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -1797,7 +1878,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1809,7 +1890,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="24">
+    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
@@ -1821,75 +1902,75 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
   </sheetData>
@@ -1898,21 +1979,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
@@ -1924,7 +2005,7 @@
       </c>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
@@ -1936,7 +2017,7 @@
       </c>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -1948,7 +2029,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>44</v>
       </c>
@@ -1960,7 +2041,7 @@
       </c>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +2053,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +2065,7 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +2077,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2008,7 +2089,7 @@
       </c>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2101,7 @@
       </c>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
@@ -2032,7 +2113,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
@@ -2044,7 +2125,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>45</v>
       </c>
@@ -2058,7 +2139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +2149,7 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>47</v>
       </c>
@@ -2080,7 +2161,7 @@
       </c>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
@@ -2094,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2187,7 @@
       </c>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +2199,7 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2211,7 @@
       </c>
       <c r="D18" s="27"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
@@ -2142,7 +2223,7 @@
       </c>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
@@ -2154,7 +2235,7 @@
       </c>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2247,7 @@
       </c>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
@@ -2178,7 +2259,7 @@
       </c>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>37</v>
       </c>
@@ -2190,7 +2271,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2283,7 @@
       </c>
       <c r="D24" s="27"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -2228,7 +2309,7 @@
       </c>
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -2238,7 +2319,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="27"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +2331,7 @@
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>28</v>
       </c>
@@ -2262,7 +2343,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>51</v>
       </c>
@@ -2272,7 +2353,7 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>52</v>
       </c>
@@ -2282,7 +2363,7 @@
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>53</v>
       </c>
@@ -2294,7 +2375,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>54</v>
       </c>
@@ -2306,7 +2387,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>55</v>
       </c>
@@ -2318,7 +2399,7 @@
       </c>
       <c r="D34" s="27"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>56</v>
       </c>
@@ -2328,7 +2409,7 @@
       <c r="C35" s="29"/>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>57</v>
       </c>
@@ -2338,7 +2419,7 @@
       <c r="C36" s="29"/>
       <c r="D36" s="27"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>31</v>
       </c>
@@ -2350,7 +2431,7 @@
       </c>
       <c r="D37" s="27"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>58</v>
       </c>
@@ -2362,7 +2443,7 @@
       </c>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>59</v>
       </c>
@@ -2374,7 +2455,7 @@
       </c>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>60</v>
       </c>
@@ -2390,20 +2471,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>33</v>
       </c>
@@ -2414,7 +2495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
@@ -2425,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>14</v>
       </c>
@@ -2436,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
@@ -2447,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>12</v>
       </c>
@@ -2469,7 +2550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
@@ -2480,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>45</v>
       </c>
@@ -2513,7 +2594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>61</v>
       </c>
@@ -2524,7 +2605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>46</v>
       </c>
@@ -2533,7 +2614,7 @@
       </c>
       <c r="C12" s="27"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>16</v>
       </c>
@@ -2544,7 +2625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
@@ -2555,7 +2636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
@@ -2577,7 +2658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +2680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>62</v>
       </c>
@@ -2610,7 +2691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>37</v>
       </c>
@@ -2621,7 +2702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>38</v>
       </c>
@@ -2632,42 +2713,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>28</v>
       </c>
@@ -2678,28 +2759,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>69</v>
       </c>
@@ -2710,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>59</v>
       </c>
@@ -2721,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>60</v>
       </c>
@@ -2736,20 +2817,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>33</v>
       </c>
@@ -2761,7 +2842,7 @@
       </c>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
@@ -2773,7 +2854,7 @@
       </c>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +2866,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
@@ -2797,7 +2878,7 @@
       </c>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2890,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -2821,7 +2902,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
@@ -2833,7 +2914,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
@@ -2845,7 +2926,7 @@
       </c>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2938,7 @@
       </c>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2950,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
@@ -2881,7 +2962,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>45</v>
       </c>
@@ -2895,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -2909,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>46</v>
       </c>
@@ -2919,7 +3000,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>47</v>
       </c>
@@ -2931,7 +3012,7 @@
       </c>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>16</v>
       </c>
@@ -2957,7 +3038,7 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>17</v>
       </c>
@@ -2969,7 +3050,7 @@
       </c>
       <c r="D18" s="27"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
@@ -2981,7 +3062,7 @@
       </c>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>19</v>
       </c>
@@ -2993,7 +3074,7 @@
       </c>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>20</v>
       </c>
@@ -3005,7 +3086,7 @@
       </c>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
@@ -3017,7 +3098,7 @@
       </c>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
@@ -3029,7 +3110,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>62</v>
       </c>
@@ -3041,7 +3122,7 @@
       </c>
       <c r="D24" s="27"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>37</v>
       </c>
@@ -3053,7 +3134,7 @@
       </c>
       <c r="D25" s="27"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>38</v>
       </c>
@@ -3065,7 +3146,7 @@
       </c>
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -3077,7 +3158,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>49</v>
       </c>
@@ -3089,7 +3170,7 @@
       </c>
       <c r="D28" s="48"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -3101,7 +3182,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -3113,7 +3194,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3206,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3218,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>72</v>
       </c>
@@ -3147,7 +3228,7 @@
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>68</v>
       </c>
@@ -3157,7 +3238,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>67</v>
       </c>
@@ -3167,7 +3248,7 @@
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>73</v>
       </c>
@@ -3181,7 +3262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>56</v>
       </c>
@@ -3191,7 +3272,7 @@
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>28</v>
       </c>
@@ -3203,7 +3284,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>50</v>
       </c>
@@ -3215,7 +3296,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>74</v>
       </c>
@@ -3227,7 +3308,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>69</v>
       </c>
@@ -3239,7 +3320,7 @@
       </c>
       <c r="D41" s="36"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>59</v>
       </c>
@@ -3251,7 +3332,7 @@
       </c>
       <c r="D42" s="36"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -3267,20 +3348,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>33</v>
       </c>
@@ -3288,7 +3369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>55</v>
       </c>
@@ -3296,7 +3377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
@@ -3328,13 +3409,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="56"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>6</v>
       </c>
@@ -3350,7 +3431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>45</v>
       </c>
@@ -3358,7 +3439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>75</v>
       </c>
@@ -3366,7 +3447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>15</v>
       </c>
@@ -3374,7 +3455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>16</v>
       </c>
@@ -3382,7 +3463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>18</v>
       </c>
@@ -3398,7 +3479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>19</v>
       </c>
@@ -3406,7 +3487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>20</v>
       </c>
@@ -3414,7 +3495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>21</v>
       </c>
@@ -3422,7 +3503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>76</v>
       </c>
@@ -3430,7 +3511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>77</v>
       </c>
@@ -3438,7 +3519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>78</v>
       </c>
@@ -3446,7 +3527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>79</v>
       </c>
@@ -3454,7 +3535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>28</v>
       </c>
@@ -3462,7 +3543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
@@ -3470,7 +3551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>80</v>
       </c>
@@ -3478,7 +3559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>81</v>
       </c>
@@ -3486,7 +3567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>82</v>
       </c>
@@ -3494,7 +3575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>54</v>
       </c>
@@ -3502,7 +3583,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>83</v>
       </c>
@@ -3510,7 +3591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>53</v>
       </c>
@@ -3518,7 +3599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>31</v>
       </c>
@@ -3526,7 +3607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>38</v>
       </c>
@@ -3534,25 +3615,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="36"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="36"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="51"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>87</v>
       </c>
@@ -3560,7 +3641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
@@ -3568,15 +3649,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
     </row>
@@ -3586,24 +3667,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="63" t="s">
@@ -3621,8 +3703,11 @@
       <c r="F1" s="63" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3641,8 +3726,11 @@
       <c r="F2" s="49" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -3658,8 +3746,11 @@
       <c r="F3" s="49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -3678,8 +3769,11 @@
       <c r="F4" s="49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +3781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3695,7 +3789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3714,8 +3808,11 @@
       <c r="F7" s="49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -3731,8 +3828,11 @@
       <c r="F8" s="49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -3748,8 +3848,11 @@
       <c r="F9" s="52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -3763,7 +3866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -3779,7 +3882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -3787,7 +3890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -3806,8 +3909,11 @@
       <c r="F14" s="49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -3815,7 +3921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -3831,8 +3937,11 @@
       <c r="E16" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -3848,8 +3957,11 @@
       <c r="F17" s="49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -3868,8 +3980,11 @@
       <c r="F18" s="49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -3888,8 +4003,11 @@
       <c r="F19" s="49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3908,8 +4026,11 @@
       <c r="F20" s="49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -3928,8 +4049,11 @@
       <c r="F21" s="49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -3948,8 +4072,11 @@
       <c r="F22" s="49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -3968,16 +4095,22 @@
       <c r="F23" s="49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -3992,7 +4125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -4008,7 +4141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -4016,7 +4149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -4024,7 +4157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -4043,8 +4176,11 @@
       <c r="F30" s="49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -4052,12 +4188,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -4073,13 +4209,16 @@
       <c r="F33" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -4098,8 +4237,11 @@
       <c r="F35" s="49" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -4110,7 +4252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4121,7 +4263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
@@ -4140,8 +4282,11 @@
       <c r="F38" s="49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -4160,8 +4305,11 @@
       <c r="F39" s="43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4177,8 +4325,11 @@
       <c r="F40" s="53" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="18" t="s">
         <v>43</v>
       </c>
@@ -4192,27 +4343,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>58</v>
+      <c r="C42" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>117</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>59</v>
       </c>
@@ -4231,8 +4385,11 @@
       <c r="F43" s="47" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -4251,15 +4408,18 @@
       <c r="F44" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="18"/>
       <c r="D45" s="35" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="32"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" s="22" t="s">
         <v>49</v>
       </c>
@@ -4267,15 +4427,18 @@
       <c r="E46" s="46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" s="22"/>
       <c r="D47" s="58"/>
       <c r="E47" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
         <v>44</v>
       </c>
@@ -4286,7 +4449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="18" t="s">
         <v>46</v>
       </c>
@@ -4297,7 +4460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="18"/>
       <c r="D50" s="35" t="s">
         <v>67</v>
@@ -4306,7 +4469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="24" t="s">
         <v>52</v>
       </c>
@@ -4314,8 +4477,11 @@
         <v>52</v>
       </c>
       <c r="E51" s="46"/>
-    </row>
-    <row r="52" spans="3:6">
+      <c r="G51" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="22" t="s">
         <v>53</v>
       </c>
@@ -4326,8 +4492,11 @@
       <c r="F52" s="49" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="3:6">
+      <c r="G52" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="61"/>
       <c r="D53" s="31" t="s">
         <v>62</v>
@@ -4337,7 +4506,7 @@
       </c>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="3:6">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="18" t="s">
         <v>47</v>
       </c>
@@ -4346,8 +4515,11 @@
         <v>47</v>
       </c>
       <c r="F54" s="60"/>
-    </row>
-    <row r="55" spans="3:6">
+      <c r="G54" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="18" t="s">
         <v>48</v>
       </c>
@@ -4356,7 +4528,7 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="3:6">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="57"/>
       <c r="D56" s="35" t="s">
         <v>68</v>
@@ -4366,44 +4538,53 @@
       </c>
       <c r="F56" s="60"/>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="22" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="3:6">
+      <c r="G57" s="64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F58" s="49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="3:6">
+      <c r="G58" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" s="22" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="3:6">
+      <c r="G59" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D61" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="59"/>
       <c r="F61" s="60"/>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62" s="24" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="18" t="s">
         <v>56</v>
       </c>
@@ -4411,119 +4592,257 @@
         <v>56</v>
       </c>
       <c r="F63" s="60"/>
-    </row>
-    <row r="64" spans="3:6">
+      <c r="G63" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="58"/>
       <c r="E64" s="59"/>
       <c r="F64" s="60"/>
-    </row>
-    <row r="65" spans="4:6">
+      <c r="G64" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="59"/>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="4:6">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E68" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="4:6">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E69" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="4:6">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E70" s="46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="4:6">
+    <row r="71" spans="4:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="E71" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="4:6">
+      <c r="G71" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E72" s="62"/>
       <c r="F72" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="4:6">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F73" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="4:6">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F74" s="49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="4:6">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F75" s="49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="4:6">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F76" s="49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="4:6">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F77" s="49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="4:6">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F78" s="49" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="4:6">
+      <c r="G78" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F79" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="4:6">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F80" s="49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="6:6">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="6:6">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="6:6">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="6:6">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="35" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="G103" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="5"/>
+    </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Mapeamento P1/Campos P1.xlsx
+++ b/Mapeamento P1/Campos P1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="119">
   <si>
     <t>COD_PROFESSOR</t>
   </si>
@@ -403,6 +403,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3668,10 +3669,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="C92" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,263 +4572,260 @@
         <v>50</v>
       </c>
     </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="59"/>
+      <c r="F60" s="60"/>
+    </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="59"/>
+      <c r="C61" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="F61" s="60"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="24" t="s">
-        <v>51</v>
+      <c r="C62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="F62" s="60"/>
+      <c r="G62" s="46" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="46" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="59"/>
       <c r="F63" s="60"/>
-      <c r="G63" s="46" t="s">
-        <v>56</v>
+      <c r="G63" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E64" s="59"/>
       <c r="F64" s="60"/>
-      <c r="G64" s="18" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="60"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="35" t="s">
-        <v>66</v>
+      <c r="E67" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E68" s="5" t="s">
-        <v>71</v>
+      <c r="E68" s="46" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E69" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="E71" s="5" t="s">
+    <row r="70" spans="4:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="62"/>
+      <c r="F71" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E72" s="62"/>
       <c r="F72" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F73" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F74" s="49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F75" s="49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F76" s="49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F77" s="49" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="G77" s="49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F78" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F79" s="49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="49" t="s">
-        <v>83</v>
+      <c r="F80" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="35" t="s">
-        <v>85</v>
+      <c r="F82" s="50" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="50" t="s">
-        <v>86</v>
+      <c r="F83" s="35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="35" t="s">
-        <v>87</v>
+      <c r="G84" s="64" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G85" s="64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G86" s="64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G87" s="64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G88" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G89" s="64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="64" t="s">
-        <v>102</v>
+      <c r="G90" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G91" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G92" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G93" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G94" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G95" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G96" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="G102" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="7:7" ht="24.75" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G106" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G107" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4837,12 +4835,538 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Mapeamento P1/Campos P1.xlsx
+++ b/Mapeamento P1/Campos P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="8445" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19155" windowHeight="8385" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Atuação Fixa" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="124">
   <si>
     <t>COD_PROFESSOR</t>
   </si>
@@ -302,9 +302,6 @@
     <t>EXTENSAO</t>
   </si>
   <si>
-    <t>ESPECIALIZACAP</t>
-  </si>
-  <si>
     <t>FALTAS</t>
   </si>
   <si>
@@ -378,6 +375,24 @@
   </si>
   <si>
     <t>QTD_HORA_DIA</t>
+  </si>
+  <si>
+    <t>NOME ATRIBUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO </t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>PRECISAO</t>
+  </si>
+  <si>
+    <t>ESPECIALIZACAO</t>
+  </si>
+  <si>
+    <t>DT_ALOCACAO_DIA</t>
   </si>
 </sst>
 </file>
@@ -447,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -531,13 +546,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -707,6 +731,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3669,10 +3697,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C92" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,13 +3729,13 @@
         <v>92</v>
       </c>
       <c r="E1" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="63" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4152,574 +4182,574 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>33</v>
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>35</v>
+      <c r="A37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
-        <v>45</v>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C40" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
+      <c r="A41" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>117</v>
+        <v>59</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>117</v>
+        <v>59</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="C44" s="18"/>
       <c r="D44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="64" t="s">
-        <v>60</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="18"/>
-      <c r="D45" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="32"/>
+      <c r="C45" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="C46" s="22"/>
       <c r="D46" s="58"/>
-      <c r="E46" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>49</v>
+      <c r="E46" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="22"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="5" t="s">
-        <v>70</v>
+      <c r="C47" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="19" t="s">
-        <v>44</v>
+      <c r="C48" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>46</v>
+      <c r="C49" s="18"/>
+      <c r="D49" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="18"/>
+      <c r="C50" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="D50" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="G50" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="46"/>
-      <c r="G51" s="35" t="s">
-        <v>52</v>
+      <c r="C51" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="49" t="s">
-        <v>53</v>
-      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="60"/>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="61"/>
-      <c r="D53" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>62</v>
+      <c r="C53" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="F53" s="60"/>
+      <c r="G53" s="44" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="44" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="F54" s="60"/>
-      <c r="G54" s="44" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>48</v>
+      <c r="C55" s="57"/>
+      <c r="D55" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="57"/>
-      <c r="D56" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="60"/>
+      <c r="C56" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="64" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="49" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="D59" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="59"/>
+      <c r="F59" s="60"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="59"/>
+      <c r="C60" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="F60" s="60"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
-        <v>51</v>
+      <c r="C61" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="F61" s="60"/>
+      <c r="G61" s="46" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D62" s="58"/>
+      <c r="E62" s="59"/>
       <c r="F62" s="60"/>
-      <c r="G62" s="46" t="s">
-        <v>56</v>
+      <c r="G62" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="58"/>
+      <c r="D63" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E63" s="59"/>
       <c r="F63" s="60"/>
-      <c r="G63" s="18" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D64" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="60"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D66" s="35" t="s">
-        <v>66</v>
+      <c r="E66" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E67" s="5" t="s">
-        <v>71</v>
+      <c r="E67" s="46" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E68" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E69" s="46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="4:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="E70" s="5" t="s">
+    <row r="69" spans="4:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="62"/>
+      <c r="F70" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="62"/>
       <c r="F71" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F72" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F73" s="49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F74" s="49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F75" s="49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F76" s="49" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="G76" s="49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F77" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F78" s="49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="49" t="s">
-        <v>83</v>
+      <c r="F79" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F80" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="35" t="s">
-        <v>85</v>
+      <c r="F81" s="50" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="50" t="s">
-        <v>86</v>
+      <c r="F82" s="35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="35" t="s">
-        <v>87</v>
+      <c r="G83" s="64" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G84" s="64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
@@ -4743,7 +4773,7 @@
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G89" s="64" t="s">
+      <c r="G89" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4802,29 +4832,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="G101" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="7:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G105" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4835,536 +4860,1282 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="16">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="17">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="5">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5">
+        <v>30</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="5">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="16">
+        <v>12</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="16">
+        <v>10</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="5">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="5">
+        <v>5</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="46" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="5">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="5">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="5">
+        <v>10</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="5">
+        <v>40</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="5">
+        <v>10</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="5">
+        <v>10</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="5">
+        <v>5</v>
+      </c>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="5">
+        <v>5</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="5">
+        <v>5</v>
+      </c>
+      <c r="D93" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="5">
+        <v>40</v>
+      </c>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="5">
+        <v>4</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="5">
+        <v>6</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="16">
+        <v>5</v>
+      </c>
+      <c r="D103" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="B104" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="5">
+        <v>80</v>
+      </c>
+      <c r="D104" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Mapeamento P1/Campos P1.xlsx
+++ b/Mapeamento P1/Campos P1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="19155" windowHeight="8385" firstSheet="1" activeTab="7"/>
@@ -16,12 +16,12 @@
     <sheet name="Todos os Campos" sheetId="7" r:id="rId7"/>
     <sheet name="Plan1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="126">
   <si>
     <t>COD_PROFESSOR</t>
   </si>
@@ -393,13 +393,19 @@
   </si>
   <si>
     <t>DT_ALOCACAO_DIA</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>TIPO_INFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,7 +567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -735,6 +741,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,7 +836,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -861,7 +870,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1037,20 +1045,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1070,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1082,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1094,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1104,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1114,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1126,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1138,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1150,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1162,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1198,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1210,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1222,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1234,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1236,7 +1244,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1248,7 +1256,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +1268,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1280,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1292,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1304,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +1316,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1328,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1340,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1352,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1364,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1376,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1402,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1406,7 +1414,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1418,7 +1426,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1438,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +1450,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1454,7 +1462,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1486,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1488,7 +1496,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1518,20 +1526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1551,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1563,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1575,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1585,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1595,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1607,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1619,7 @@
       </c>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1631,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1635,7 +1643,7 @@
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1649,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1697,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1701,7 +1709,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1721,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +1747,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1759,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +1771,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1783,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1787,7 +1795,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +1807,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1819,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1831,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +1843,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1847,7 +1855,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -1859,7 +1867,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -1871,7 +1879,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
@@ -1883,7 +1891,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -1895,7 +1903,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1915,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1919,7 +1927,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="24">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
@@ -1931,75 +1939,75 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="14"/>
     </row>
   </sheetData>
@@ -2008,21 +2016,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
@@ -2034,7 +2042,7 @@
       </c>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
@@ -2046,7 +2054,7 @@
       </c>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2066,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2070,7 +2078,7 @@
       </c>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2090,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2102,7 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
@@ -2106,7 +2114,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2118,7 +2126,7 @@
       </c>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2138,7 @@
       </c>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
@@ -2142,7 +2150,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
@@ -2154,7 +2162,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="19" t="s">
         <v>45</v>
       </c>
@@ -2168,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
         <v>46</v>
       </c>
@@ -2178,7 +2186,7 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="18" t="s">
         <v>47</v>
       </c>
@@ -2190,7 +2198,7 @@
       </c>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
@@ -2204,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
@@ -2216,7 +2224,7 @@
       </c>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2236,7 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
@@ -2240,7 +2248,7 @@
       </c>
       <c r="D18" s="27"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
@@ -2252,7 +2260,7 @@
       </c>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
@@ -2264,7 +2272,7 @@
       </c>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -2276,7 +2284,7 @@
       </c>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
@@ -2288,7 +2296,7 @@
       </c>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="23" t="s">
         <v>37</v>
       </c>
@@ -2300,7 +2308,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
@@ -2312,7 +2320,7 @@
       </c>
       <c r="D24" s="27"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="19" t="s">
         <v>34</v>
       </c>
@@ -2326,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -2338,7 +2346,7 @@
       </c>
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -2348,7 +2356,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="22" t="s">
         <v>1</v>
       </c>
@@ -2360,7 +2368,7 @@
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="22" t="s">
         <v>28</v>
       </c>
@@ -2372,7 +2380,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="24" t="s">
         <v>51</v>
       </c>
@@ -2382,7 +2390,7 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="24" t="s">
         <v>52</v>
       </c>
@@ -2392,7 +2400,7 @@
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="22" t="s">
         <v>53</v>
       </c>
@@ -2404,7 +2412,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="22" t="s">
         <v>54</v>
       </c>
@@ -2416,7 +2424,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="22" t="s">
         <v>55</v>
       </c>
@@ -2428,7 +2436,7 @@
       </c>
       <c r="D34" s="27"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="22" t="s">
         <v>56</v>
       </c>
@@ -2438,7 +2446,7 @@
       <c r="C35" s="29"/>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="22" t="s">
         <v>57</v>
       </c>
@@ -2448,7 +2456,7 @@
       <c r="C36" s="29"/>
       <c r="D36" s="27"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="22" t="s">
         <v>31</v>
       </c>
@@ -2460,7 +2468,7 @@
       </c>
       <c r="D37" s="27"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="25" t="s">
         <v>58</v>
       </c>
@@ -2472,7 +2480,7 @@
       </c>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="25" t="s">
         <v>59</v>
       </c>
@@ -2484,7 +2492,7 @@
       </c>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="25" t="s">
         <v>60</v>
       </c>
@@ -2500,20 +2508,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="31" t="s">
         <v>33</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
@@ -2535,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="37" t="s">
         <v>12</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="31" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="31" t="s">
         <v>45</v>
       </c>
@@ -2623,7 +2631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="34" t="s">
         <v>61</v>
       </c>
@@ -2634,7 +2642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>46</v>
       </c>
@@ -2643,7 +2651,7 @@
       </c>
       <c r="C12" s="27"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="31" t="s">
         <v>16</v>
       </c>
@@ -2654,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
@@ -2665,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="31" t="s">
         <v>18</v>
       </c>
@@ -2676,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +2695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="31" t="s">
         <v>20</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="31" t="s">
         <v>62</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="18" t="s">
         <v>37</v>
       </c>
@@ -2731,7 +2739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="37" t="s">
         <v>38</v>
       </c>
@@ -2742,42 +2750,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="31" t="s">
         <v>28</v>
       </c>
@@ -2788,28 +2796,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="35" t="s">
         <v>69</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="35" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="35" t="s">
         <v>60</v>
       </c>
@@ -2846,20 +2854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="32" t="s">
         <v>33</v>
       </c>
@@ -2871,7 +2879,7 @@
       </c>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
@@ -2883,7 +2891,7 @@
       </c>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2895,7 +2903,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
@@ -2907,7 +2915,7 @@
       </c>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2927,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2939,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2951,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2963,7 @@
       </c>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2975,7 @@
       </c>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -2979,7 +2987,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
@@ -2991,7 +2999,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="44" t="s">
         <v>45</v>
       </c>
@@ -3005,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="44" t="s">
         <v>46</v>
       </c>
@@ -3029,7 +3037,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="44" t="s">
         <v>47</v>
       </c>
@@ -3041,7 +3049,7 @@
       </c>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="32" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3075,7 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="32" t="s">
         <v>17</v>
       </c>
@@ -3079,7 +3087,7 @@
       </c>
       <c r="D18" s="27"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
@@ -3091,7 +3099,7 @@
       </c>
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="32" t="s">
         <v>19</v>
       </c>
@@ -3103,7 +3111,7 @@
       </c>
       <c r="D20" s="27"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="32" t="s">
         <v>20</v>
       </c>
@@ -3115,7 +3123,7 @@
       </c>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
@@ -3127,7 +3135,7 @@
       </c>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
@@ -3139,7 +3147,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="15" t="s">
         <v>62</v>
       </c>
@@ -3151,7 +3159,7 @@
       </c>
       <c r="D24" s="27"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="43" t="s">
         <v>37</v>
       </c>
@@ -3163,7 +3171,7 @@
       </c>
       <c r="D25" s="27"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="45" t="s">
         <v>38</v>
       </c>
@@ -3175,7 +3183,7 @@
       </c>
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -3187,7 +3195,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="46" t="s">
         <v>49</v>
       </c>
@@ -3199,7 +3207,7 @@
       </c>
       <c r="D28" s="48"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -3211,7 +3219,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -3223,7 +3231,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -3235,7 +3243,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -3247,7 +3255,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="46" t="s">
         <v>72</v>
       </c>
@@ -3257,7 +3265,7 @@
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="46" t="s">
         <v>68</v>
       </c>
@@ -3267,7 +3275,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="46" t="s">
         <v>67</v>
       </c>
@@ -3277,7 +3285,7 @@
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="46" t="s">
         <v>73</v>
       </c>
@@ -3291,7 +3299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="46" t="s">
         <v>56</v>
       </c>
@@ -3301,7 +3309,7 @@
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
         <v>28</v>
       </c>
@@ -3313,7 +3321,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>50</v>
       </c>
@@ -3325,7 +3333,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
         <v>74</v>
       </c>
@@ -3337,7 +3345,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="47" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3357,7 @@
       </c>
       <c r="D41" s="36"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="47" t="s">
         <v>59</v>
       </c>
@@ -3361,7 +3369,7 @@
       </c>
       <c r="D42" s="36"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -3377,20 +3385,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="49" t="s">
         <v>33</v>
       </c>
@@ -3398,7 +3406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="49" t="s">
         <v>55</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
@@ -3414,7 +3422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="49" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="49" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
@@ -3438,13 +3446,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="56"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="49" t="s">
         <v>5</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="49" t="s">
         <v>6</v>
       </c>
@@ -3460,7 +3468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="49" t="s">
         <v>45</v>
       </c>
@@ -3468,7 +3476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="49" t="s">
         <v>75</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="49" t="s">
         <v>15</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="49" t="s">
         <v>16</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="49" t="s">
         <v>17</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="49" t="s">
         <v>18</v>
       </c>
@@ -3508,7 +3516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="49" t="s">
         <v>19</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="49" t="s">
         <v>20</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="49" t="s">
         <v>21</v>
       </c>
@@ -3532,7 +3540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="49" t="s">
         <v>76</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="49" t="s">
         <v>77</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="49" t="s">
         <v>78</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="49" t="s">
         <v>79</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="49" t="s">
         <v>28</v>
       </c>
@@ -3572,7 +3580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
@@ -3580,7 +3588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="49" t="s">
         <v>80</v>
       </c>
@@ -3588,7 +3596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="49" t="s">
         <v>81</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="49" t="s">
         <v>82</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="49" t="s">
         <v>54</v>
       </c>
@@ -3612,7 +3620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="49" t="s">
         <v>83</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="49" t="s">
         <v>53</v>
       </c>
@@ -3628,7 +3636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="49" t="s">
         <v>31</v>
       </c>
@@ -3636,7 +3644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="53" t="s">
         <v>38</v>
       </c>
@@ -3644,25 +3652,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="36"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="36"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="50" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="51"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="35" t="s">
         <v>87</v>
       </c>
@@ -3670,7 +3678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="35" t="s">
         <v>87</v>
       </c>
@@ -3678,15 +3686,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
     </row>
@@ -3696,7 +3704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3705,7 +3713,7 @@
       <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="3" width="31.7109375" customWidth="1"/>
@@ -3715,7 +3723,7 @@
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="63" t="s">
         <v>89</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -3781,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -3804,7 +3812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -3812,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3843,7 +3851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -3883,7 +3891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -3913,7 +3921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -3944,7 +3952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -3952,7 +3960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -3972,7 +3980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -3992,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -4061,7 +4069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -4084,7 +4092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -4130,7 +4138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -4141,7 +4149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -4156,7 +4164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -4164,7 +4172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -4172,7 +4180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -4180,7 +4188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -4203,7 +4211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -4211,12 +4219,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
@@ -4267,7 +4275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -4335,7 +4343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4355,7 +4363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="C40" s="18" t="s">
         <v>43</v>
       </c>
@@ -4369,7 +4377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="18" t="s">
         <v>58</v>
       </c>
@@ -4392,7 +4400,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -4438,14 +4446,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="C44" s="18"/>
       <c r="D44" s="35" t="s">
         <v>65</v>
       </c>
       <c r="E44" s="32"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="C45" s="22" t="s">
         <v>49</v>
       </c>
@@ -4457,14 +4465,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="C46" s="22"/>
       <c r="D46" s="58"/>
       <c r="E46" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="C47" s="19" t="s">
         <v>44</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="C48" s="18" t="s">
         <v>46</v>
       </c>
@@ -4486,7 +4494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7">
       <c r="C49" s="18"/>
       <c r="D49" s="35" t="s">
         <v>67</v>
@@ -4495,7 +4503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7">
       <c r="C50" s="24" t="s">
         <v>52</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7">
       <c r="C51" s="22" t="s">
         <v>53</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7">
       <c r="C52" s="61"/>
       <c r="D52" s="31" t="s">
         <v>62</v>
@@ -4532,7 +4540,7 @@
       </c>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7">
       <c r="C53" s="18" t="s">
         <v>47</v>
       </c>
@@ -4545,7 +4553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7">
       <c r="C54" s="18" t="s">
         <v>48</v>
       </c>
@@ -4554,7 +4562,7 @@
       </c>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7">
       <c r="C55" s="57"/>
       <c r="D55" s="35" t="s">
         <v>68</v>
@@ -4564,7 +4572,7 @@
       </c>
       <c r="F55" s="60"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7">
       <c r="C56" s="22" t="s">
         <v>55</v>
       </c>
@@ -4575,7 +4583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7">
       <c r="C57" s="22" t="s">
         <v>54</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7">
       <c r="C58" s="22" t="s">
         <v>50</v>
       </c>
@@ -4597,20 +4605,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7">
       <c r="D59" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E59" s="59"/>
       <c r="F59" s="60"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7">
       <c r="C60" s="24" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7">
       <c r="C61" s="18" t="s">
         <v>56</v>
       </c>
@@ -4622,7 +4630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7">
       <c r="C62" s="18" t="s">
         <v>57</v>
       </c>
@@ -4633,39 +4641,39 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7">
       <c r="D63" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E63" s="59"/>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7">
       <c r="D64" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:7">
       <c r="D65" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:7">
       <c r="E66" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:7">
       <c r="E67" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:7">
       <c r="E68" s="46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="4:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:7" ht="24.75">
       <c r="E69" s="5" t="s">
         <v>74</v>
       </c>
@@ -4673,38 +4681,38 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:7">
       <c r="E70" s="62"/>
       <c r="F70" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:7">
       <c r="F71" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:7">
       <c r="F72" s="49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:7">
       <c r="F73" s="49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:7">
       <c r="F74" s="49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:7">
       <c r="F75" s="49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:7">
       <c r="F76" s="49" t="s">
         <v>81</v>
       </c>
@@ -4712,142 +4720,142 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:7">
       <c r="F77" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:7">
       <c r="F78" s="49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:7">
       <c r="F79" s="35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:7">
       <c r="F80" s="35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7">
       <c r="F81" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7">
       <c r="F82" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7">
       <c r="G83" s="64" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7">
       <c r="G84" s="64" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7">
       <c r="G85" s="64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7">
       <c r="G86" s="64" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7">
       <c r="G87" s="64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7">
       <c r="G88" s="64" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7">
       <c r="G89" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7">
       <c r="G90" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7">
       <c r="G91" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7">
       <c r="G92" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7">
       <c r="G93" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7">
       <c r="G94" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7">
       <c r="G95" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7">
       <c r="G96" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:7">
       <c r="G97" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:7">
       <c r="G98" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:7">
       <c r="G99" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:7">
       <c r="G100" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="7:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7" ht="24.75">
       <c r="G101" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7">
       <c r="G102" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:7">
       <c r="G103" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:7">
       <c r="G104" s="5" t="s">
         <v>96</v>
       </c>
@@ -4859,21 +4867,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="66" t="s">
         <v>118</v>
       </c>
@@ -4887,7 +4895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -4899,7 +4907,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -4911,7 +4919,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -4925,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4935,7 +4943,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -4945,7 +4953,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -4957,7 +4965,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -4969,7 +4977,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -4981,7 +4989,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -4995,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -5009,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -5037,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -5049,7 +5057,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -5061,7 +5069,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -5073,7 +5081,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -5087,7 +5095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -5099,7 +5107,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -5111,7 +5119,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -5123,7 +5131,7 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -5135,7 +5143,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -5147,7 +5155,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -5159,7 +5167,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -5173,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -5187,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -5199,7 +5207,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -5211,7 +5219,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -5223,7 +5231,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -5249,7 +5257,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -5261,7 +5269,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -5273,7 +5281,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
@@ -5299,7 +5307,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -5313,7 +5321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -5327,7 +5335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -5341,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -5353,7 +5361,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -5365,7 +5373,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
@@ -5377,7 +5385,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="18" t="s">
         <v>58</v>
       </c>
@@ -5389,7 +5397,7 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
@@ -5401,7 +5409,7 @@
       </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="18" t="s">
         <v>123</v>
       </c>
@@ -5411,7 +5419,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="35" t="s">
         <v>65</v>
       </c>
@@ -5423,7 +5431,7 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="22" t="s">
         <v>49</v>
       </c>
@@ -5435,7 +5443,7 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -5447,7 +5455,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="19" t="s">
         <v>44</v>
       </c>
@@ -5459,7 +5467,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="18" t="s">
         <v>46</v>
       </c>
@@ -5469,7 +5477,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="35" t="s">
         <v>67</v>
       </c>
@@ -5479,7 +5487,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="35" t="s">
         <v>52</v>
       </c>
@@ -5489,7 +5497,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
@@ -5501,7 +5509,7 @@
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="15" t="s">
         <v>62</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="44" t="s">
         <v>47</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="15" t="s">
         <v>48</v>
       </c>
@@ -5543,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="46" t="s">
         <v>68</v>
       </c>
@@ -5553,7 +5561,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="22" t="s">
         <v>55</v>
       </c>
@@ -5565,7 +5573,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="22" t="s">
         <v>54</v>
       </c>
@@ -5577,7 +5585,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="22" t="s">
         <v>50</v>
       </c>
@@ -5589,7 +5597,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="34" t="s">
         <v>61</v>
       </c>
@@ -5603,7 +5611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="24" t="s">
         <v>51</v>
       </c>
@@ -5613,7 +5621,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="18" t="s">
         <v>56</v>
       </c>
@@ -5623,7 +5631,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="18" t="s">
         <v>57</v>
       </c>
@@ -5633,7 +5641,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="35" t="s">
         <v>63</v>
       </c>
@@ -5647,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="35" t="s">
         <v>64</v>
       </c>
@@ -5657,7 +5665,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
         <v>66</v>
       </c>
@@ -5671,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="46" t="s">
         <v>72</v>
       </c>
@@ -5695,7 +5703,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="46" t="s">
         <v>73</v>
       </c>
@@ -5709,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
         <v>74</v>
       </c>
@@ -5723,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="49" t="s">
         <v>75</v>
       </c>
@@ -5737,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="49" t="s">
         <v>76</v>
       </c>
@@ -5749,7 +5757,7 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="49" t="s">
         <v>77</v>
       </c>
@@ -5761,7 +5769,7 @@
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="49" t="s">
         <v>78</v>
       </c>
@@ -5773,7 +5781,7 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="49" t="s">
         <v>79</v>
       </c>
@@ -5785,7 +5793,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="49" t="s">
         <v>80</v>
       </c>
@@ -5797,7 +5805,7 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="49" t="s">
         <v>81</v>
       </c>
@@ -5807,7 +5815,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="49" t="s">
         <v>82</v>
       </c>
@@ -5819,7 +5827,7 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="49" t="s">
         <v>83</v>
       </c>
@@ -5831,7 +5839,7 @@
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="35" t="s">
         <v>84</v>
       </c>
@@ -5843,7 +5851,7 @@
       </c>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="35" t="s">
         <v>85</v>
       </c>
@@ -5855,7 +5863,7 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="50" t="s">
         <v>86</v>
       </c>
@@ -5867,7 +5875,7 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="35" t="s">
         <v>87</v>
       </c>
@@ -5879,7 +5887,7 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="64" t="s">
         <v>95</v>
       </c>
@@ -5891,7 +5899,7 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="64" t="s">
         <v>97</v>
       </c>
@@ -5903,7 +5911,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="64" t="s">
         <v>98</v>
       </c>
@@ -5915,7 +5923,7 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="64" t="s">
         <v>99</v>
       </c>
@@ -5927,7 +5935,7 @@
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="64" t="s">
         <v>100</v>
       </c>
@@ -5939,7 +5947,7 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="64" t="s">
         <v>101</v>
       </c>
@@ -5949,7 +5957,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
         <v>102</v>
       </c>
@@ -5961,7 +5969,7 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="5" t="s">
         <v>103</v>
       </c>
@@ -5971,7 +5979,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="5" t="s">
         <v>104</v>
       </c>
@@ -5981,7 +5989,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="5" t="s">
         <v>105</v>
       </c>
@@ -5991,7 +5999,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="5" t="s">
         <v>106</v>
       </c>
@@ -6005,7 +6013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="5" t="s">
         <v>107</v>
       </c>
@@ -6017,7 +6025,7 @@
       </c>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="5" t="s">
         <v>108</v>
       </c>
@@ -6029,7 +6037,7 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="5" t="s">
         <v>109</v>
       </c>
@@ -6041,7 +6049,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="5" t="s">
         <v>110</v>
       </c>
@@ -6051,7 +6059,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="5" t="s">
         <v>111</v>
       </c>
@@ -6061,7 +6069,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
         <v>112</v>
       </c>
@@ -6075,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="5" t="s">
         <v>113</v>
       </c>
@@ -6089,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="5" t="s">
         <v>114</v>
       </c>
@@ -6101,7 +6109,7 @@
       </c>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="5" t="s">
         <v>115</v>
       </c>
@@ -6111,7 +6119,7 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="5" t="s">
         <v>117</v>
       </c>
@@ -6125,7 +6133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
@@ -6136,6 +6144,28 @@
         <v>80</v>
       </c>
       <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="68">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
